--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7754b561025ac8fc/科研备份/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{3D615CE7-6D89-4A9C-BFDE-9E5FEF808F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7CD29F8-D477-4EA3-9599-BBEC0AEA4759}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{3D615CE7-6D89-4A9C-BFDE-9E5FEF808F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{860AC3A0-FCAC-4D4D-B137-EA0D9110E15E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{8EA98E9E-2FE1-4415-B245-F3001B82B5FD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8EA98E9E-2FE1-4415-B245-F3001B82B5FD}"/>
   </bookViews>
   <sheets>
     <sheet name="TN" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="PN transmission line" sheetId="1" r:id="rId4"/>
     <sheet name="Gen cost in MATPOWER format" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>starting bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maximum phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t0 (min)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,10 +182,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -531,10 +527,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2984,10 +2980,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC92941B-B448-4A53-8D07-58C4F8A6459D}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3003,7 +2999,7 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3023,16 +3019,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3057,11 +3050,8 @@
       <c r="H2" s="1">
         <v>50</v>
       </c>
-      <c r="I2" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3086,11 +3076,8 @@
       <c r="H3" s="1">
         <v>60</v>
       </c>
-      <c r="I3" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3115,11 +3102,8 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3144,11 +3128,8 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3173,11 +3154,8 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3202,11 +3180,8 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3231,11 +3206,8 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3260,11 +3232,8 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3289,11 +3258,8 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3318,11 +3284,8 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3347,11 +3310,8 @@
       <c r="H12" s="1">
         <v>40</v>
       </c>
-      <c r="I12" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3376,11 +3336,8 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3405,11 +3362,8 @@
       <c r="H14" s="1">
         <v>20</v>
       </c>
-      <c r="I14" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3434,11 +3388,8 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3463,11 +3414,8 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3492,11 +3440,8 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3521,11 +3466,8 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="I18" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3550,11 +3492,8 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3579,11 +3518,8 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3608,11 +3544,8 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3637,11 +3570,8 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3666,11 +3596,8 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3695,11 +3622,8 @@
       <c r="H24" s="1">
         <v>20</v>
       </c>
-      <c r="I24" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3724,11 +3648,8 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3753,11 +3674,8 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="I26" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3782,11 +3700,8 @@
       <c r="H27" s="1">
         <v>0</v>
       </c>
-      <c r="I27" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3811,11 +3726,8 @@
       <c r="H28" s="1">
         <v>40</v>
       </c>
-      <c r="I28" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3840,11 +3752,8 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-      <c r="I29" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3869,11 +3778,8 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="I30" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3898,20 +3804,17 @@
       <c r="H31" s="1">
         <v>0</v>
       </c>
-      <c r="I31" s="1">
-        <v>3.8</v>
-      </c>
     </row>
     <row r="33" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -3940,7 +3843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4832B066-62EA-41BD-9E53-67CFE378CE74}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7754b561025ac8fc/科研备份/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{3D615CE7-6D89-4A9C-BFDE-9E5FEF808F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{860AC3A0-FCAC-4D4D-B137-EA0D9110E15E}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{3D615CE7-6D89-4A9C-BFDE-9E5FEF808F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AFF8650-A6C2-4E1C-AE38-406C40D0547A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8EA98E9E-2FE1-4415-B245-F3001B82B5FD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{8EA98E9E-2FE1-4415-B245-F3001B82B5FD}"/>
   </bookViews>
   <sheets>
     <sheet name="TN" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>starting bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +105,6 @@
   </si>
   <si>
     <t>type3: slack bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maximum power flow (MW)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -527,10 +523,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2982,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC92941B-B448-4A53-8D07-58C4F8A6459D}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3019,7 +3015,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -3843,8 +3839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4832B066-62EA-41BD-9E53-67CFE378CE74}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3853,7 +3849,7 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3869,9 +3865,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -3886,9 +3880,7 @@
       <c r="D2" s="1">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="E2" s="1">
-        <v>80</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -3903,9 +3895,7 @@
       <c r="D3" s="1">
         <v>0.1852</v>
       </c>
-      <c r="E3" s="1">
-        <v>80</v>
-      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3920,9 +3910,7 @@
       <c r="D4" s="1">
         <v>0.17369999999999999</v>
       </c>
-      <c r="E4" s="1">
-        <v>40</v>
-      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3937,9 +3925,7 @@
       <c r="D5" s="1">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="E5" s="1">
-        <v>80</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3954,9 +3940,7 @@
       <c r="D6" s="1">
         <v>0.1983</v>
       </c>
-      <c r="E6" s="1">
-        <v>80</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -3971,9 +3955,7 @@
       <c r="D7" s="1">
         <v>0.17630000000000001</v>
       </c>
-      <c r="E7" s="1">
-        <v>40</v>
-      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -3988,9 +3970,7 @@
       <c r="D8" s="1">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="E8" s="1">
-        <v>55.384615384615387</v>
-      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -4005,9 +3985,7 @@
       <c r="D9" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="E9" s="1">
-        <v>43.07692307692308</v>
-      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -4022,9 +4000,7 @@
       <c r="D10" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="E10" s="1">
-        <v>80</v>
-      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -4039,9 +4015,7 @@
       <c r="D11" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E11" s="1">
-        <v>30</v>
-      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -4056,9 +4030,7 @@
       <c r="D12" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="E12" s="1">
-        <v>40</v>
-      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -4073,9 +4045,7 @@
       <c r="D13" s="1">
         <v>0.55600000000000005</v>
       </c>
-      <c r="E13" s="1">
-        <v>19.692307692307693</v>
-      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -4090,9 +4060,7 @@
       <c r="D14" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="E14" s="1">
-        <v>40</v>
-      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -4107,9 +4075,7 @@
       <c r="D15" s="1">
         <v>0.11</v>
       </c>
-      <c r="E15" s="1">
-        <v>40</v>
-      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -4124,9 +4090,7 @@
       <c r="D16" s="1">
         <v>0.25600000000000001</v>
       </c>
-      <c r="E16" s="1">
-        <v>40</v>
-      </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -4141,9 +4105,7 @@
       <c r="D17" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E17" s="1">
-        <v>40</v>
-      </c>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -4158,9 +4120,7 @@
       <c r="D18" s="1">
         <v>0.25590000000000002</v>
       </c>
-      <c r="E18" s="1">
-        <v>19.692307692307693</v>
-      </c>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -4175,9 +4135,7 @@
       <c r="D19" s="1">
         <v>0.13039999999999999</v>
       </c>
-      <c r="E19" s="1">
-        <v>19.692307692307693</v>
-      </c>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -4192,9 +4150,7 @@
       <c r="D20" s="1">
         <v>0.19869999999999999</v>
       </c>
-      <c r="E20" s="1">
-        <v>19.692307692307693</v>
-      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -4209,9 +4165,7 @@
       <c r="D21" s="1">
         <v>0.19969999999999999</v>
       </c>
-      <c r="E21" s="1">
-        <v>9.8461538461538467</v>
-      </c>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -4226,9 +4180,7 @@
       <c r="D22" s="1">
         <v>0.19320000000000001</v>
       </c>
-      <c r="E22" s="1">
-        <v>9.8461538461538467</v>
-      </c>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -4243,9 +4195,7 @@
       <c r="D23" s="1">
         <v>0.2185</v>
       </c>
-      <c r="E23" s="1">
-        <v>9.8461538461538467</v>
-      </c>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -4260,9 +4210,7 @@
       <c r="D24" s="1">
         <v>0.12920000000000001</v>
       </c>
-      <c r="E24" s="1">
-        <v>9.8461538461538467</v>
-      </c>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -4277,9 +4225,7 @@
       <c r="D25" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E25" s="1">
-        <v>19.692307692307693</v>
-      </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -4294,9 +4240,7 @@
       <c r="D26" s="1">
         <v>0.20899999999999999</v>
       </c>
-      <c r="E26" s="1">
-        <v>19.692307692307693</v>
-      </c>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -4311,9 +4255,7 @@
       <c r="D27" s="1">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="E27" s="1">
-        <v>19.692307692307693</v>
-      </c>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -4328,9 +4270,7 @@
       <c r="D28" s="1">
         <v>7.4899999999999994E-2</v>
       </c>
-      <c r="E28" s="1">
-        <v>19.692307692307693</v>
-      </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -4345,9 +4285,7 @@
       <c r="D29" s="1">
         <v>0.14990000000000001</v>
       </c>
-      <c r="E29" s="1">
-        <v>19.692307692307693</v>
-      </c>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -4362,9 +4300,7 @@
       <c r="D30" s="1">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="E30" s="1">
-        <v>19.692307692307693</v>
-      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -4379,9 +4315,7 @@
       <c r="D31" s="1">
         <v>0.20200000000000001</v>
       </c>
-      <c r="E31" s="1">
-        <v>9.8461538461538467</v>
-      </c>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -4396,9 +4330,7 @@
       <c r="D32" s="1">
         <v>0.17899999999999999</v>
       </c>
-      <c r="E32" s="1">
-        <v>9.8461538461538467</v>
-      </c>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -4413,9 +4345,7 @@
       <c r="D33" s="1">
         <v>0.27</v>
       </c>
-      <c r="E33" s="1">
-        <v>9.8461538461538467</v>
-      </c>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -4430,9 +4360,7 @@
       <c r="D34" s="1">
         <v>0.32919999999999999</v>
       </c>
-      <c r="E34" s="1">
-        <v>9.8461538461538467</v>
-      </c>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -4447,9 +4375,7 @@
       <c r="D35" s="1">
         <v>0.38</v>
       </c>
-      <c r="E35" s="1">
-        <v>9.8461538461538467</v>
-      </c>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -4464,9 +4390,7 @@
       <c r="D36" s="1">
         <v>0.2087</v>
       </c>
-      <c r="E36" s="1">
-        <v>19.692307692307693</v>
-      </c>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -4481,9 +4405,7 @@
       <c r="D37" s="1">
         <v>0.39600000000000002</v>
       </c>
-      <c r="E37" s="1">
-        <v>40</v>
-      </c>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -4498,9 +4420,7 @@
       <c r="D38" s="1">
         <v>0.4153</v>
       </c>
-      <c r="E38" s="1">
-        <v>9.8461538461538467</v>
-      </c>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -4515,9 +4435,7 @@
       <c r="D39" s="1">
         <v>0.60270000000000001</v>
       </c>
-      <c r="E39" s="1">
-        <v>9.8461538461538467</v>
-      </c>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -4532,9 +4450,7 @@
       <c r="D40" s="1">
         <v>0.45329999999999998</v>
       </c>
-      <c r="E40" s="1">
-        <v>9.8461538461538467</v>
-      </c>
+      <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -4549,9 +4465,7 @@
       <c r="D41" s="1">
         <v>0.2</v>
       </c>
-      <c r="E41" s="1">
-        <v>19.692307692307693</v>
-      </c>
+      <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -4566,9 +4480,7 @@
       <c r="D42" s="1">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="E42" s="1">
-        <v>19.692307692307693</v>
-      </c>
+      <c r="E42" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4580,8 +4492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4539E2B-83A0-4C35-A3EA-688D75C41311}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
